--- a/testCase/testReport.xlsx
+++ b/testCase/testReport.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="1.1.2" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="env" sheetId="3" r:id="rId1"/>
+    <sheet name="1.1.2" sheetId="1" r:id="rId2"/>
+    <sheet name="1.2.0" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>2T HDD</t>
   </si>
@@ -64,13 +64,34 @@
   </si>
   <si>
     <t>v1.1.2</t>
+  </si>
+  <si>
+    <t>o (1.5h+1h)</t>
+  </si>
+  <si>
+    <t>ARK-3530 – Xeon 3.8GHz</t>
+  </si>
+  <si>
+    <t>CPU: XE3-1275 E3-1275 v6 @ 3.8GHz</t>
+  </si>
+  <si>
+    <t>HDD: ST1000VT001-1RE172  1T*2</t>
+  </si>
+  <si>
+    <t>MSATA SSD: SQR-SD4I-16G2K1SNB</t>
+  </si>
+  <si>
+    <t>HDD: ST5000LM000-2AN170  5T*2</t>
+  </si>
+  <si>
+    <t>SSD: SQF-S25V4-1T-SBC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,6 +101,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -160,6 +188,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,10 +494,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -568,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>4</v>
@@ -580,18 +662,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -599,7 +669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/testCase/testReport.xlsx
+++ b/testCase/testReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="3" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>o</t>
   </si>
   <si>
-    <t>o (7d)</t>
-  </si>
-  <si>
     <t>o (2d)</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>SSD: SQF-S25V4-1T-SBC</t>
+  </si>
+  <si>
+    <t>o (10d/965G)</t>
   </si>
 </sst>
 </file>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -507,33 +507,33 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -572,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -601,10 +601,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>4</v>

--- a/testCase/testReport.xlsx
+++ b/testCase/testReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>2T HDD</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>o (10d/965G)</t>
+  </si>
+  <si>
+    <t>Diverge</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Overall</t>
   </si>
 </sst>
 </file>
@@ -544,10 +556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -655,8 +667,34 @@
       <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/testReport.xlsx
+++ b/testCase/testReport.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="3" r:id="rId1"/>
     <sheet name="1.1.2" sheetId="1" r:id="rId2"/>
     <sheet name="1.2.0" sheetId="2" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
   <si>
     <t>2T HDD</t>
   </si>
@@ -97,6 +98,48 @@
   </si>
   <si>
     <t>Overall</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>Kubeapps</t>
+  </si>
+  <si>
+    <t>v1.2.0</t>
+  </si>
+  <si>
+    <t>Reinstall Mongo(OOS)</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Scripts (DDR)</t>
+  </si>
+  <si>
+    <t>DDR</t>
+  </si>
+  <si>
+    <t>OOS</t>
+  </si>
+  <si>
+    <t>Out Of Space</t>
+  </si>
+  <si>
+    <t>Recycling</t>
+  </si>
+  <si>
+    <t>Destroy/Deploy/Reset</t>
+  </si>
+  <si>
+    <t>Bug</t>
   </si>
 </sst>
 </file>
@@ -125,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -204,6 +253,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -705,11 +766,210 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/testCase/testReport.xlsx
+++ b/testCase/testReport.xlsx
@@ -10,7 +10,7 @@
     <sheet name="env" sheetId="3" r:id="rId1"/>
     <sheet name="1.1.2" sheetId="1" r:id="rId2"/>
     <sheet name="1.2.0" sheetId="2" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
+    <sheet name="1.2.1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -620,7 +620,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C12" sqref="A1:XFD1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -769,7 +769,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -969,7 +969,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/testCase/testReport.xlsx
+++ b/testCase/testReport.xlsx
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
